--- a/data/COA_Doss-Gollin_James.xlsx
+++ b/data/COA_Doss-Gollin_James.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA932A2-2909-A645-AE16-81A2B01EFBAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A58F1E-FE5F-ED42-BB1E-89EFB48FC936}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="27840" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSF COA Template" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
   <si>
     <t>G:</t>
   </si>
@@ -352,42 +352,9 @@
     <t>University of Masachusetts at Amherst</t>
   </si>
   <si>
-    <t>Upmanu Lall</t>
-  </si>
-  <si>
-    <t>Jonathan Lamontagne</t>
-  </si>
-  <si>
-    <t>Scott Steinschneider</t>
-  </si>
-  <si>
-    <t>Michelle Ho</t>
-  </si>
-  <si>
     <t>CSIRO Australia</t>
   </si>
   <si>
-    <t>David Farnham</t>
-  </si>
-  <si>
-    <t>Viktor Rozer</t>
-  </si>
-  <si>
-    <t>Heidi Kreibich</t>
-  </si>
-  <si>
-    <t>Kai Schroter</t>
-  </si>
-  <si>
-    <t>Meike Muller</t>
-  </si>
-  <si>
-    <t>Nivedita Sairam</t>
-  </si>
-  <si>
-    <t>Bruno Merz</t>
-  </si>
-  <si>
     <t>Grantham Institute, LSE</t>
   </si>
   <si>
@@ -397,15 +364,9 @@
     <t>Rice University</t>
   </si>
   <si>
-    <t>Cheryl Doss</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
-    <t>Douglas Gollin</t>
-  </si>
-  <si>
     <t>ula2@columbia.edu</t>
   </si>
   <si>
@@ -457,15 +418,9 @@
     <t>bruno.merz@gfz-potsdam.de</t>
   </si>
   <si>
-    <t>Yash Vijay Amonkar</t>
-  </si>
-  <si>
     <t>yva2000@columbia.edu</t>
   </si>
   <si>
-    <t>Klaus Keller</t>
-  </si>
-  <si>
     <t>The Pennsylvania State University</t>
   </si>
   <si>
@@ -476,6 +431,96 @@
   </si>
   <si>
     <t>meike.mueller@deutscherueck.de</t>
+  </si>
+  <si>
+    <t>Doss, Cheryl</t>
+  </si>
+  <si>
+    <t>Gollin, Douglas</t>
+  </si>
+  <si>
+    <t>Keller, Klaus</t>
+  </si>
+  <si>
+    <t>Ho, Michelle</t>
+  </si>
+  <si>
+    <t>Farnham, David J</t>
+  </si>
+  <si>
+    <t>Lamontagne, Jonathan</t>
+  </si>
+  <si>
+    <t>Amonkar, Yash Vijar</t>
+  </si>
+  <si>
+    <t>Steinschneider, Scott</t>
+  </si>
+  <si>
+    <t>Rozer, Viktor</t>
+  </si>
+  <si>
+    <t>Kreibich, Heidi</t>
+  </si>
+  <si>
+    <t>Schroter, Kai</t>
+  </si>
+  <si>
+    <t>Muller, Meike</t>
+  </si>
+  <si>
+    <t>Sairam, Nivedita</t>
+  </si>
+  <si>
+    <t>Merz, Bruno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: </t>
+  </si>
+  <si>
+    <t>Faranda, Davide</t>
+  </si>
+  <si>
+    <t>Messori, Gabriele</t>
+  </si>
+  <si>
+    <t>Yiou, Pascal</t>
+  </si>
+  <si>
+    <t>davide.faranda@lsce.ipsl.fr</t>
+  </si>
+  <si>
+    <t>University of Paris-Saclay,</t>
+  </si>
+  <si>
+    <t>Uppsala University</t>
+  </si>
+  <si>
+    <t>gabriele.messori@geo.uu.se</t>
+  </si>
+  <si>
+    <t>pascal.yiou@cea.fr</t>
+  </si>
+  <si>
+    <t>Muñoz, Ángel G</t>
+  </si>
+  <si>
+    <t>agmunoz@iri.columbia.edu</t>
+  </si>
+  <si>
+    <t>Pastén, Max</t>
+  </si>
+  <si>
+    <t>Dirección de Meteorología e Hidrología, Paraguay</t>
+  </si>
+  <si>
+    <t>maxpasten@gmail.com</t>
+  </si>
+  <si>
+    <t>Mason, Simon J</t>
+  </si>
+  <si>
+    <t>simon@iri.columbia.edu</t>
   </si>
 </sst>
 </file>
@@ -741,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -913,15 +958,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -931,23 +974,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -2343,8 +2389,8 @@
   </sheetPr>
   <dimension ref="A1:XFC96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2363,137 +2409,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="195.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" ht="67.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
     </row>
     <row r="7" spans="1:5" s="10" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" ht="62.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -2527,7 +2573,7 @@
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="20" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D18" s="44">
         <v>44196</v>
@@ -2538,7 +2584,7 @@
       <c r="A19" s="45"/>
       <c r="B19" s="45"/>
       <c r="C19" s="43" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D19" s="44" t="s">
         <v>50</v>
@@ -2563,24 +2609,24 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -2613,10 +2659,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="21"/>
@@ -2626,10 +2672,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
@@ -2663,24 +2709,24 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -2724,7 +2770,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2738,7 +2784,7 @@
         <v>49</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2752,7 +2798,7 @@
         <v>49</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2766,7 +2812,7 @@
         <v>49</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2780,7 +2826,7 @@
         <v>56</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2803,24 +2849,24 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
@@ -2864,13 +2910,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>81</v>
       </c>
       <c r="E51" s="29">
         <v>44196</v>
@@ -2881,13 +2927,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E52" s="21">
         <v>43859</v>
@@ -2898,13 +2944,13 @@
         <v>8</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E53" s="48">
         <v>43859</v>
@@ -2915,13 +2961,13 @@
         <v>8</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E54" s="48">
         <v>43859</v>
@@ -2932,13 +2978,13 @@
         <v>8</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E55" s="21">
         <v>43817</v>
@@ -2949,13 +2995,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E56" s="48">
         <v>43817</v>
@@ -2966,13 +3012,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E57" s="48">
         <v>43623</v>
@@ -2983,13 +3029,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E58" s="48">
         <v>43551</v>
@@ -3000,13 +3046,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E59" s="48">
         <v>43551</v>
@@ -3017,13 +3063,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="60" t="s">
-        <v>89</v>
+        <v>59</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>76</v>
       </c>
       <c r="E60" s="48">
         <v>43551</v>
@@ -3034,13 +3080,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="60" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="E61" s="48">
         <v>43551</v>
@@ -3051,13 +3097,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D62" s="50" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E62" s="48">
         <v>43551</v>
@@ -3068,59 +3114,119 @@
         <v>8</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D63" s="50" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E63" s="48">
         <v>43551</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="29"/>
+      <c r="A64" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="29">
+        <v>43100</v>
+      </c>
     </row>
     <row r="65" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="29"/>
+      <c r="A65" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="29">
+        <v>43100</v>
+      </c>
     </row>
     <row r="66" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="48"/>
+      <c r="A66" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="29">
+        <v>43100</v>
+      </c>
     </row>
     <row r="67" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="48"/>
+      <c r="A67" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="48">
+        <v>43344</v>
+      </c>
     </row>
     <row r="68" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="48"/>
+      <c r="A68" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="48">
+        <v>43344</v>
+      </c>
     </row>
     <row r="69" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="48"/>
+      <c r="A69" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="48">
+        <v>43344</v>
+      </c>
     </row>
     <row r="70" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
@@ -3242,13 +3348,13 @@
       <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" s="37" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B87" s="54"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
     </row>
     <row r="88" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
@@ -3332,6 +3438,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="22">
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="A87:E87"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A1:E1"/>
@@ -3348,12 +3460,6 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27:A31" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -3377,15 +3483,18 @@
     <hyperlink ref="D59" r:id="rId2" xr:uid="{FFFF8F8B-529B-834D-AD43-5C3270BA292C}"/>
     <hyperlink ref="D60" r:id="rId3" xr:uid="{04AB8FFC-C09E-DD4A-AD02-E1B44346344E}"/>
     <hyperlink ref="D61" r:id="rId4" xr:uid="{3D83BB57-78E9-9F4E-B191-8DF6BA94CCE3}"/>
+    <hyperlink ref="D65" r:id="rId5" xr:uid="{7FCCC7B0-E281-A64A-8010-212E34595783}"/>
+    <hyperlink ref="D66" r:id="rId6" xr:uid="{E2CFB3B3-6E2E-A44A-B312-A8BE803239CB}"/>
+    <hyperlink ref="D67" r:id="rId7" xr:uid="{ED11FA3C-BEB1-BE4D-A0F2-45E2AAE5F3A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="98" fitToHeight="0" orientation="portrait" r:id="rId5"/>
+  <pageSetup scale="98" fitToHeight="0" orientation="portrait" r:id="rId8"/>
   <tableParts count="5">
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
